--- a/src/data/out/BASERADIAL/EJEMPLO_1.xlsx
+++ b/src/data/out/BASERADIAL/EJEMPLO_1.xlsx
@@ -507,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,26 +529,50 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.153293757320417</v>
+        <v>1.166774510607817</v>
       </c>
       <c r="B2" t="n">
-        <v>1.909013966963473</v>
+        <v>1.811524756057199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.823104031894046</v>
+        <v>1.535144693350089</v>
       </c>
       <c r="B3" t="n">
-        <v>1.772578201014941</v>
+        <v>1.801996726204932</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.323049601760364</v>
+        <v>1.098012934381879</v>
       </c>
       <c r="B4" t="n">
-        <v>1.745282590241487</v>
+        <v>1.143032051207002</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.932261693226221</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.752031760731072</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.340914626733801</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.103214725256414</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.648331208255467</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.736939719302222</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +624,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>

--- a/src/data/out/BASERADIAL/EJEMPLO_1.xlsx
+++ b/src/data/out/BASERADIAL/EJEMPLO_1.xlsx
@@ -507,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,50 +529,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.166774510607817</v>
+        <v>1.458378615907553</v>
       </c>
       <c r="B2" t="n">
-        <v>1.811524756057199</v>
+        <v>1.970936617956742</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.535144693350089</v>
+        <v>1.12001343503452</v>
       </c>
       <c r="B3" t="n">
-        <v>1.801996726204932</v>
+        <v>1.293136277171197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.098012934381879</v>
+        <v>1.749369824698618</v>
       </c>
       <c r="B4" t="n">
-        <v>1.143032051207002</v>
+        <v>1.017888619766821</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.932261693226221</v>
+        <v>1.874892488509138</v>
       </c>
       <c r="B5" t="n">
-        <v>1.752031760731072</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1.340914626733801</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.103214725256414</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1.648331208255467</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.736939719302222</v>
+        <v>1.593879235366864</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +608,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/src/data/out/BASERADIAL/EJEMPLO_1.xlsx
+++ b/src/data/out/BASERADIAL/EJEMPLO_1.xlsx
@@ -507,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,34 +529,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.458378615907553</v>
+        <v>1.427341968239229</v>
       </c>
       <c r="B2" t="n">
-        <v>1.970936617956742</v>
+        <v>1.104212033219165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.12001343503452</v>
+        <v>1.491890183280079</v>
       </c>
       <c r="B3" t="n">
-        <v>1.293136277171197</v>
+        <v>1.035635955434549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.749369824698618</v>
+        <v>1.574243005436326</v>
       </c>
       <c r="B4" t="n">
-        <v>1.017888619766821</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1.874892488509138</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.593879235366864</v>
+        <v>1.670178276150565</v>
       </c>
     </row>
   </sheetData>
@@ -608,7 +600,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
